--- a/Assets/Curriculum/창신INC 일정 관리.xlsx
+++ b/Assets/Curriculum/창신INC 일정 관리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="6" rupBuild="9.103.96.45032"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 시간 표시 막대" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>4주 프로젝트 시간 표시 막대</t>
   </si>
@@ -324,6 +324,128 @@
   <si>
     <t>데이터 관리</t>
   </si>
+  <si>
+    <t>라이프 싸이클</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="0" tint="-0.150000"/>
+        <rFont val="Malgun Gothic"/>
+      </rPr>
+      <t>4월</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="0" tint="-0.249980"/>
+        <rFont val="Malgun Gothic"/>
+      </rPr>
+      <t>4월</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="0" tint="-0.349990"/>
+        <rFont val="Malgun Gothic"/>
+      </rPr>
+      <t>4월</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="0"/>
+        <rFont val="Malgun Gothic"/>
+      </rPr>
+      <t>4월</t>
+    </r>
+  </si>
+  <si>
+    <t>5월</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1" tint="0.049990"/>
+        <rFont val="Malgun Gothic"/>
+      </rPr>
+      <t>5월</t>
+    </r>
+  </si>
+  <si>
+    <t>열1</t>
+  </si>
+  <si>
+    <t>열2</t>
+  </si>
+  <si>
+    <t>열3</t>
+  </si>
+  <si>
+    <t>열4</t>
+  </si>
+  <si>
+    <t>열5</t>
+  </si>
+  <si>
+    <t>열6</t>
+  </si>
+  <si>
+    <t>열7</t>
+  </si>
+  <si>
+    <t>열8</t>
+  </si>
+  <si>
+    <t>열9</t>
+  </si>
+  <si>
+    <t>열10</t>
+  </si>
+  <si>
+    <t>열11</t>
+  </si>
+  <si>
+    <t>열12</t>
+  </si>
+  <si>
+    <t>열13</t>
+  </si>
+  <si>
+    <t>열14</t>
+  </si>
+  <si>
+    <t>열15</t>
+  </si>
+  <si>
+    <t>서버 통신</t>
+  </si>
+  <si>
+    <t xml:space="preserve">포톤 </t>
+  </si>
+  <si>
+    <t>네트워크 통신</t>
+  </si>
+  <si>
+    <t>포톤 서버</t>
+  </si>
+  <si>
+    <t>지형 시스템</t>
+  </si>
+  <si>
+    <t>포톤 서네트워크 통신버</t>
+  </si>
+  <si>
+    <t>조명 시스템</t>
+  </si>
 </sst>
 </file>
 
@@ -337,7 +459,7 @@
     <numFmt numFmtId="166" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="m&quot;월&quot;"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="52">
     <font>
       <sz val="11.0"/>
       <name val="Malgun Gothic"/>
@@ -483,11 +605,6 @@
     </font>
     <font>
       <sz val="10.0"/>
-      <name val="Malgun Gothic"/>
-      <color theme="1" tint="0.249950"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <name val="Malgun Gothic"/>
       <color theme="1" tint="0.249950"/>
     </font>
@@ -513,8 +630,108 @@
       <name val="맑은 고딕"/>
       <color theme="1" tint="0.249950"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="1" tint="0.249950"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="0" tint="-0.150000"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="0" tint="-0.150000"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="0" tint="-0.249980"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="0" tint="-0.249980"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="0" tint="-0.249980"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="0" tint="-0.349990"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="0" tint="-0.349990"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="0" tint="-0.349990"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="0" tint="-0.150000"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="0" tint="-0.249980"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="0" tint="-0.349990"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="0" tint="-0.150000"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="0" tint="-0.249980"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="0" tint="-0.349990"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="0"/>
+    </font>
   </fonts>
-  <fills count="68">
+  <fills count="67">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -778,7 +995,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-0.349990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.349990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -790,138 +1025,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.349990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.150000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF008080"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF008080"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE80074"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF770055"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003A9A"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009297"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC4700"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009900"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC6600"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00007E"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF66"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80007F"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF36B700"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1046,6 +1257,180 @@
         <color theme="4"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.149970"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.149970"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1211,7 +1596,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1323,82 +1708,61 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="45" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="167" fontId="24" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="46" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="46" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="45" borderId="3" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="47" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="47" borderId="3" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="166" fontId="4" fillId="44" borderId="3" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="26" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="47" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="167" fontId="26" fillId="44" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="5" applyBorder="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="4" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="5" applyBorder="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="5" applyBorder="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="4" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="45" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="5" applyBorder="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="5" applyBorder="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
@@ -1410,7 +1774,7 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
@@ -1419,18 +1783,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="3" borderId="3" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="45" borderId="3" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="4" fillId="4" borderId="3" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1440,161 +1798,530 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="26" fillId="4" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="45" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="48" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="48" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="44" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="45" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="44" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="5" xfId="5" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyFill="1" applyBorder="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="48" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="48" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="5" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="10" applyFill="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="48" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="48" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="44" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="50" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="51" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="52" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="49" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="53" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="54" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="55" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="56" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="57" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="58" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="59" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="60" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="61" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="61" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="45" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="46" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="62" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="63" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="64" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="65" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="66" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="67" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="29" fillId="48" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="49" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="50" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="51" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="52" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="53" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="4" borderId="3" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="3" borderId="3" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="36" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="37" fillId="4" borderId="3" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="37" fillId="3" borderId="3" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="39" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="40" fillId="4" borderId="3" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="40" fillId="3" borderId="3" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="42" fillId="4" borderId="3" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="44" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="44" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="42" fillId="44" borderId="3" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="42" fillId="2" borderId="3" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="42" fillId="3" borderId="3" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="54" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="55" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="10" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="10" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="48" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="49" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="46" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="52" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="53" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="50" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="10" applyFill="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="10" applyFill="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="3" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="10" applyFill="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="10" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="56" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="57" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="58" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="59" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="60" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="51" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="54" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="61" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="62" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="63" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="63" borderId="16" xfId="10" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="63" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="64" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="64" borderId="16" xfId="10" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="64" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="65" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="16" xfId="10" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="47" borderId="13" xfId="10" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="47" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="60" borderId="16" xfId="10" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="60" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="10" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="16" xfId="10" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="10" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="10" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="65" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="52" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="66" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="57" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1879,10 +2606,10 @@
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF31"/>
+  <dimension ref="B1:AT25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH18" sqref="AH18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AT16" sqref="AT16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.000000" customHeight="1"/>
@@ -1891,12 +2618,16 @@
     <col min="2" max="2" style="29" width="13.63000011" customWidth="1" outlineLevel="0"/>
     <col min="3" max="17" style="3" width="5.63000011" customWidth="1" outlineLevel="0"/>
     <col min="18" max="30" style="1" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="31" max="31" style="4" width="17.37999916" customWidth="1" outlineLevel="0"/>
-    <col min="32" max="32" style="1" width="2.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="33" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="31" max="31" style="4" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="32" max="41" style="1" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="42" max="43" style="1" width="12.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="44" max="44" style="1" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="45" max="45" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="46" max="46" style="1" width="19.25499916" customWidth="1" outlineLevel="0"/>
+    <col min="47" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="48.750000" customHeight="1">
+    <row r="1" spans="2:46" ht="48.750000" customHeight="1">
       <c r="B1" s="33" t="s">
         <v>23</v>
       </c>
@@ -1930,1206 +2661,1344 @@
       <c r="AD1" s="33"/>
       <c r="AE1" s="33"/>
     </row>
-    <row r="2" spans="2:32" ht="24.750000" customHeight="1">
+    <row r="2" spans="2:46" ht="24.750000" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="35">
-        <f ca="1">TODAY()-29</f>
+        <f ca="1">TODAY()-37</f>
         <v>44599</v>
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="2:32" ht="12.750000" customHeight="1">
+    <row r="3" spans="2:46" ht="12.750000" customHeight="1">
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="2:32" ht="24.750000" customHeight="1">
+    <row r="4" spans="2:46" ht="24.750000" customHeight="1">
       <c r="B4" s="6"/>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="75" t="str">
+      <c r="D4" s="66" t="str">
         <f ca="1">IF(TEXT(D6,"m월")=TEXT(C6,"m월"),"",LOWER(TEXT(D6,"m월")))</f>
         <v/>
       </c>
-      <c r="E4" s="75" t="str">
+      <c r="E4" s="66" t="str">
         <f ca="1">IF(TEXT(E6,"m월")=TEXT(D6,"m월"),"",LOWER(TEXT(E6,"m월")))</f>
         <v/>
       </c>
-      <c r="F4" s="75" t="str">
+      <c r="F4" s="66" t="str">
         <f ca="1">IF(TEXT(F6,"m월")=TEXT(E6,"m월"),"",LOWER(TEXT(F6,"m월")))</f>
         <v/>
       </c>
-      <c r="G4" s="75" t="str">
+      <c r="G4" s="66" t="str">
         <f ca="1">IF(TEXT(G6,"m월")=TEXT(F6,"m월"),"",LOWER(TEXT(G6,"m월")))</f>
         <v/>
       </c>
-      <c r="H4" s="75" t="str">
+      <c r="H4" s="66" t="str">
         <f ca="1">IF(TEXT(H6,"m월")=TEXT(G6,"m월"),"",LOWER(TEXT(H6,"m월")))</f>
         <v/>
       </c>
-      <c r="I4" s="75" t="str">
+      <c r="I4" s="66" t="str">
         <f ca="1">IF(TEXT(I6,"m월")=TEXT(H6,"m월"),"",LOWER(TEXT(I6,"m월")))</f>
         <v/>
       </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76" t="str">
+      <c r="J4" s="66"/>
+      <c r="K4" s="66" t="str">
         <f ca="1">IF(TEXT(K6,"m월")=TEXT(J6,"m월"),"",LOWER(TEXT(K6,"m월")))</f>
         <v/>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="78" t="str">
-        <f ca="1">IF(TEXT(M6,"m월")=TEXT(L6,"m월"),"",LOWER(TEXT(M6,"m월")))</f>
-        <v/>
-      </c>
-      <c r="N4" s="78" t="str">
+      <c r="M4" s="67"/>
+      <c r="N4" s="68" t="str">
         <f ca="1">IF(TEXT(N6,"m월")=TEXT(M6,"m월"),"",LOWER(TEXT(N6,"m월")))</f>
         <v/>
       </c>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78" t="str">
+      <c r="O4" s="68"/>
+      <c r="P4" s="68" t="str">
         <f ca="1">IF(TEXT(P6,"m월")=TEXT(O6,"m월"),"",LOWER(TEXT(P6,"m월")))</f>
         <v/>
       </c>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78" t="str">
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68" t="str">
         <f ca="1">IF(TEXT(R6,"m월")=TEXT(Q6,"m월"),"",LOWER(TEXT(R6,"m월")))</f>
         <v/>
       </c>
-      <c r="S4" s="78" t="str">
+      <c r="S4" s="68" t="str">
         <f ca="1">IF(TEXT(S6,"m월")=TEXT(R6,"m월"),"",LOWER(TEXT(S6,"m월")))</f>
         <v/>
       </c>
-      <c r="T4" s="78" t="str">
+      <c r="T4" s="68" t="str">
         <f ca="1">IF(TEXT(T6,"m월")=TEXT(S6,"m월"),"",LOWER(TEXT(T6,"m월")))</f>
         <v/>
       </c>
-      <c r="U4" s="78" t="str">
+      <c r="U4" s="68" t="str">
         <f ca="1">IF(TEXT(U6,"m월")=TEXT(T6,"m월"),"",LOWER(TEXT(U6,"m월")))</f>
         <v/>
       </c>
-      <c r="V4" s="78" t="str">
+      <c r="V4" s="68" t="str">
         <f ca="1">IF(TEXT(V6,"m월")=TEXT(U6,"m월"),"",LOWER(TEXT(V6,"m월")))</f>
         <v/>
       </c>
-      <c r="W4" s="78" t="str">
+      <c r="W4" s="68" t="str">
         <f ca="1">IF(TEXT(W6,"m월")=TEXT(V6,"m월"),"",LOWER(TEXT(W6,"m월")))</f>
         <v/>
       </c>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="79" t="s">
+      <c r="X4" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="Z4" s="76" t="str">
-        <f ca="1">IF(TEXT(Z6,"m월")=TEXT(Y6,"m월"),"",LOWER(TEXT(Z6,"m월")))</f>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="139"/>
+      <c r="AD4" s="139"/>
+      <c r="AE4" s="122"/>
+      <c r="AF4" s="123"/>
+      <c r="AG4" s="123" t="str">
+        <f ca="1">IF(TEXT(AG6,"m월")=TEXT(AF6,"m월"),"",LOWER(TEXT(AG6,"m월")))</f>
         <v/>
       </c>
-      <c r="AA4" s="76" t="str">
-        <f ca="1">IF(TEXT(AA6,"m월")=TEXT(Z6,"m월"),"",LOWER(TEXT(AA6,"m월")))</f>
+      <c r="AH4" s="123" t="str">
+        <f ca="1">IF(TEXT(AH6,"m월")=TEXT(AG6,"m월"),"",LOWER(TEXT(AH6,"m월")))</f>
         <v/>
       </c>
-      <c r="AB4" s="76" t="str">
-        <f ca="1">IF(TEXT(AB6,"m월")=TEXT(AA6,"m월"),"",LOWER(TEXT(AB6,"m월")))</f>
+      <c r="AI4" s="123" t="str">
+        <f ca="1">IF(TEXT(AI6,"m월")=TEXT(AH6,"m월"),"",LOWER(TEXT(AI6,"m월")))</f>
         <v/>
       </c>
-      <c r="AC4" s="76" t="str">
-        <f ca="1">IF(TEXT(AC6,"m월")=TEXT(AB6,"m월"),"",LOWER(TEXT(AC6,"m월")))</f>
+      <c r="AJ4" s="123" t="str">
+        <f ca="1">IF(TEXT(AJ6,"m월")=TEXT(AI6,"m월"),"",LOWER(TEXT(AJ6,"m월")))</f>
         <v/>
       </c>
-      <c r="AD4" s="76" t="str">
-        <f ca="1">IF(TEXT(AD6,"m월")=TEXT(AC6,"m월"),"",LOWER(TEXT(AD6,"m월")))</f>
-        <v/>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="AK4" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL4" s="67"/>
+      <c r="AM4" s="130"/>
+      <c r="AN4" s="130"/>
+      <c r="AP4" s="62"/>
+      <c r="AT4" s="200"/>
     </row>
-    <row r="5" spans="2:32" ht="18.750000" customHeight="1">
+    <row r="5" spans="2:46" ht="18.750000" customHeight="1">
       <c r="B5" s="6"/>
-      <c r="C5" s="68" t="str">
+      <c r="C5" s="61" t="str">
         <f ca="1">LOWER(TEXT(C6,"aaa"))</f>
         <v>월</v>
       </c>
-      <c r="D5" s="68" t="str">
+      <c r="D5" s="61" t="str">
         <f ca="1">LOWER(TEXT(D6,"aaa"))</f>
         <v>목</v>
       </c>
-      <c r="E5" s="68" t="str">
+      <c r="E5" s="61" t="str">
         <f ca="1">LOWER(TEXT(E6,"aaa"))</f>
         <v>금</v>
       </c>
-      <c r="F5" s="68" t="str">
+      <c r="F5" s="61" t="str">
         <f ca="1">LOWER(TEXT(F6,"aaa"))</f>
         <v>월</v>
       </c>
-      <c r="G5" s="68" t="str">
+      <c r="G5" s="61" t="str">
         <f ca="1">LOWER(TEXT(G6,"aaa"))</f>
         <v>목</v>
       </c>
-      <c r="H5" s="68" t="str">
+      <c r="H5" s="61" t="str">
         <f ca="1">LOWER(TEXT(H6,"aaa"))</f>
         <v>금</v>
       </c>
-      <c r="I5" s="68" t="str">
+      <c r="I5" s="61" t="str">
         <f ca="1">LOWER(TEXT(I6,"aaa"))</f>
         <v>월</v>
       </c>
-      <c r="J5" s="69" t="str">
+      <c r="J5" s="61" t="str">
         <f ca="1">LOWER(TEXT(J6,"aaa"))</f>
         <v>수</v>
       </c>
-      <c r="K5" s="69" t="str">
+      <c r="K5" s="61" t="str">
         <f ca="1">LOWER(TEXT(K6,"aaa"))</f>
         <v>금</v>
       </c>
-      <c r="L5" s="70" t="str">
+      <c r="L5" s="62" t="str">
         <f ca="1">LOWER(TEXT(L6,"aaa"))</f>
         <v>수</v>
       </c>
-      <c r="M5" s="70" t="str">
+      <c r="M5" s="62" t="str">
         <f ca="1">LOWER(TEXT(M6,"aaa"))</f>
         <v>금</v>
       </c>
-      <c r="N5" s="70" t="str">
+      <c r="N5" s="62" t="str">
         <f ca="1">LOWER(TEXT(N6,"aaa"))</f>
         <v>월</v>
       </c>
-      <c r="O5" s="70" t="str">
+      <c r="O5" s="62" t="str">
         <f ca="1">LOWER(TEXT(O6,"aaa"))</f>
         <v>목</v>
       </c>
-      <c r="P5" s="70" t="str">
+      <c r="P5" s="62" t="str">
         <f ca="1">LOWER(TEXT(P6,"aaa"))</f>
+        <v>월</v>
+      </c>
+      <c r="Q5" s="62" t="str">
+        <f ca="1">LOWER(TEXT(Q6,"aaa"))</f>
+        <v>수</v>
+      </c>
+      <c r="R5" s="62" t="str">
+        <f ca="1">LOWER(TEXT(R6,"aaa"))</f>
         <v>금</v>
       </c>
-      <c r="Q5" s="70" t="str">
-        <f ca="1">LOWER(TEXT(Q6,"aaa"))</f>
+      <c r="S5" s="62" t="str">
+        <f ca="1">LOWER(TEXT(S6,"aaa"))</f>
         <v>월</v>
       </c>
-      <c r="R5" s="70" t="str">
-        <f ca="1">LOWER(TEXT(R6,"aaa"))</f>
+      <c r="T5" s="62" t="str">
+        <f ca="1">LOWER(TEXT(T6,"aaa"))</f>
         <v>수</v>
       </c>
-      <c r="S5" s="70" t="str">
-        <f ca="1">LOWER(TEXT(S6,"aaa"))</f>
+      <c r="U5" s="62" t="str">
+        <f ca="1">LOWER(TEXT(U6,"aaa"))</f>
         <v>금</v>
       </c>
-      <c r="T5" s="70" t="str">
-        <f ca="1">LOWER(TEXT(T6,"aaa"))</f>
+      <c r="V5" s="62" t="str">
+        <f ca="1">LOWER(TEXT(V6,"aaa"))</f>
         <v>월</v>
       </c>
-      <c r="U5" s="70" t="str">
-        <f ca="1">LOWER(TEXT(U6,"aaa"))</f>
+      <c r="W5" s="62" t="str">
+        <f ca="1">LOWER(TEXT(W6,"aaa"))</f>
         <v>수</v>
       </c>
-      <c r="V5" s="70" t="str">
-        <f ca="1">LOWER(TEXT(V6,"aaa"))</f>
+      <c r="X5" s="61" t="str">
+        <f ca="1">LOWER(TEXT(X6,"aaa"))</f>
         <v>금</v>
       </c>
-      <c r="W5" s="70" t="str">
-        <f ca="1">LOWER(TEXT(W6,"aaa"))</f>
+      <c r="Y5" s="61" t="str">
+        <f ca="1">LOWER(TEXT(Y6,"aaa"))</f>
         <v>월</v>
       </c>
-      <c r="X5" s="70" t="str">
-        <f ca="1">LOWER(TEXT(X6,"aaa"))</f>
+      <c r="Z5" s="61" t="str">
+        <f ca="1">LOWER(TEXT(Z6,"aaa"))</f>
         <v>수</v>
       </c>
-      <c r="Y5" s="69" t="str">
-        <f ca="1">LOWER(TEXT(Y6,"aaa"))</f>
+      <c r="AA5" s="61" t="str">
+        <f ca="1">LOWER(TEXT(AA6,"aaa"))</f>
         <v>금</v>
       </c>
-      <c r="Z5" s="69" t="str">
-        <f ca="1">LOWER(TEXT(Z6,"aaa"))</f>
+      <c r="AB5" s="61" t="str">
+        <f ca="1">LOWER(TEXT(AB6,"aaa"))</f>
         <v>월</v>
       </c>
-      <c r="AA5" s="69" t="str">
-        <f ca="1">LOWER(TEXT(AA6,"aaa"))</f>
+      <c r="AC5" s="61" t="str">
+        <f ca="1">LOWER(TEXT(AC6,"aaa"))</f>
         <v>수</v>
       </c>
-      <c r="AB5" s="69" t="str">
-        <f ca="1">LOWER(TEXT(AB6,"aaa"))</f>
+      <c r="AD5" s="61" t="str">
+        <f ca="1">LOWER(TEXT(AD6,"aaa"))</f>
         <v>금</v>
       </c>
-      <c r="AC5" s="69" t="str">
-        <f ca="1">LOWER(TEXT(AC6,"aaa"))</f>
+      <c r="AE5" s="61" t="str">
+        <f ca="1">LOWER(TEXT(AE6,"aaa"))</f>
         <v>월</v>
       </c>
-      <c r="AD5" s="69" t="str">
-        <f ca="1">LOWER(TEXT(AD6,"aaa"))</f>
+      <c r="AF5" s="61" t="str">
+        <f ca="1">LOWER(TEXT(AF6,"aaa"))</f>
         <v>수</v>
       </c>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="AG5" s="61" t="str">
+        <f ca="1">LOWER(TEXT(AG6,"aaa"))</f>
+        <v>금</v>
+      </c>
+      <c r="AH5" s="61" t="str">
+        <f ca="1">LOWER(TEXT(AH6,"aaa"))</f>
+        <v>월</v>
+      </c>
+      <c r="AI5" s="61" t="str">
+        <f ca="1">LOWER(TEXT(AI6,"aaa"))</f>
+        <v>수</v>
+      </c>
+      <c r="AJ5" s="61" t="str">
+        <f ca="1">LOWER(TEXT(AJ6,"aaa"))</f>
+        <v>금</v>
+      </c>
+      <c r="AK5" s="62" t="str">
+        <f ca="1">LOWER(TEXT(AK6,"aaa"))</f>
+        <v>월</v>
+      </c>
+      <c r="AL5" s="62" t="str">
+        <f ca="1">LOWER(TEXT(AL6,"aaa"))</f>
+        <v>수</v>
+      </c>
+      <c r="AM5" s="62" t="str">
+        <f ca="1">LOWER(TEXT(AM6,"aaa"))</f>
+        <v>금</v>
+      </c>
+      <c r="AN5" s="62" t="str">
+        <f ca="1">LOWER(TEXT(AN6,"aaa"))</f>
+        <v>월</v>
+      </c>
+      <c r="AP5" s="62"/>
+      <c r="AT5" s="198"/>
     </row>
-    <row r="6" spans="2:32" ht="12.000000" customHeight="1">
+    <row r="6" spans="2:46" ht="12.000000" customHeight="1">
       <c r="B6" s="6"/>
-      <c r="C6" s="71">
+      <c r="C6" s="63">
         <f ca="1">C2</f>
         <v>44599</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="63">
         <f ca="1">C6+3</f>
         <v>44602</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="63">
         <f ca="1">D6+1</f>
         <v>44603</v>
       </c>
-      <c r="F6" s="71">
+      <c r="F6" s="63">
         <f ca="1">E6+3</f>
         <v>44606</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="63">
         <f ca="1">F6+3</f>
         <v>44609</v>
       </c>
-      <c r="H6" s="71">
+      <c r="H6" s="63">
         <f ca="1">G6+1</f>
         <v>44610</v>
       </c>
-      <c r="I6" s="71">
+      <c r="I6" s="63">
         <f ca="1">H6+3</f>
         <v>44613</v>
       </c>
-      <c r="J6" s="72">
+      <c r="J6" s="63">
         <f ca="1">I6+2</f>
         <v>44615</v>
       </c>
-      <c r="K6" s="72">
+      <c r="K6" s="63">
         <f ca="1">J6+2</f>
         <v>44617</v>
       </c>
-      <c r="L6" s="73">
+      <c r="L6" s="64">
         <f ca="1">K6+5</f>
         <v>44622</v>
       </c>
-      <c r="M6" s="73">
+      <c r="M6" s="64">
         <f ca="1">L6+2</f>
         <v>44624</v>
       </c>
-      <c r="N6" s="73">
+      <c r="N6" s="64">
         <f ca="1">M6+3</f>
         <v>44627</v>
       </c>
-      <c r="O6" s="73">
+      <c r="O6" s="64">
         <f ca="1">N6+3</f>
         <v>44630</v>
       </c>
-      <c r="P6" s="73">
-        <f ca="1">O6+1</f>
-        <v>44631</v>
-      </c>
-      <c r="Q6" s="73">
-        <f ca="1">P6+3</f>
+      <c r="P6" s="64">
+        <f ca="1">O6+4</f>
         <v>44634</v>
       </c>
-      <c r="R6" s="73">
+      <c r="Q6" s="64">
+        <f ca="1">P6+2</f>
+        <v>44636</v>
+      </c>
+      <c r="R6" s="64">
         <f ca="1">Q6+2</f>
-        <v>44636</v>
-      </c>
-      <c r="S6" s="73">
-        <f ca="1">R6+2</f>
         <v>44638</v>
       </c>
-      <c r="T6" s="73">
-        <f ca="1">S6+3</f>
+      <c r="S6" s="64">
+        <f ca="1">R6+3</f>
         <v>44641</v>
       </c>
-      <c r="U6" s="73">
+      <c r="T6" s="64">
+        <f ca="1">S6+2</f>
+        <v>44643</v>
+      </c>
+      <c r="U6" s="64">
         <f ca="1">T6+2</f>
-        <v>44643</v>
-      </c>
-      <c r="V6" s="73">
-        <f ca="1">U6+2</f>
         <v>44645</v>
       </c>
-      <c r="W6" s="73">
-        <f ca="1">V6+3</f>
+      <c r="V6" s="64">
+        <f ca="1">U6+3</f>
         <v>44648</v>
       </c>
-      <c r="X6" s="73">
+      <c r="W6" s="64">
+        <f ca="1">V6+2</f>
+        <v>44650</v>
+      </c>
+      <c r="X6" s="63">
         <f ca="1">W6+2</f>
-        <v>44650</v>
-      </c>
-      <c r="Y6" s="72">
-        <f ca="1">X6+2</f>
         <v>44652</v>
       </c>
-      <c r="Z6" s="72">
-        <f ca="1">Y6+3</f>
+      <c r="Y6" s="63">
+        <f ca="1">X6+3</f>
         <v>44655</v>
       </c>
-      <c r="AA6" s="72">
+      <c r="Z6" s="63">
+        <f ca="1">Y6+2</f>
+        <v>44657</v>
+      </c>
+      <c r="AA6" s="63">
         <f ca="1">Z6+2</f>
-        <v>44657</v>
-      </c>
-      <c r="AB6" s="72">
-        <f ca="1">AA6+2</f>
         <v>44659</v>
       </c>
-      <c r="AC6" s="72">
-        <f ca="1">AB6+3</f>
+      <c r="AB6" s="63">
+        <f ca="1">AA6+3</f>
         <v>44662</v>
       </c>
-      <c r="AD6" s="72">
+      <c r="AC6" s="63">
+        <f ca="1">AB6+2</f>
+        <v>44664</v>
+      </c>
+      <c r="AD6" s="63">
         <f ca="1">AC6+2</f>
-        <v>44664</v>
-      </c>
-      <c r="AE6" s="31"/>
+        <v>44666</v>
+      </c>
+      <c r="AE6" s="63">
+        <f ca="1">AD6+3</f>
+        <v>44669</v>
+      </c>
+      <c r="AF6" s="63">
+        <f ca="1">AE6+2</f>
+        <v>44671</v>
+      </c>
+      <c r="AG6" s="63">
+        <f ca="1">AF6+2</f>
+        <v>44673</v>
+      </c>
+      <c r="AH6" s="63">
+        <f ca="1">AG6+3</f>
+        <v>44676</v>
+      </c>
+      <c r="AI6" s="63">
+        <f ca="1">AH6+2</f>
+        <v>44678</v>
+      </c>
+      <c r="AJ6" s="63">
+        <f ca="1">AI6+2</f>
+        <v>44680</v>
+      </c>
+      <c r="AK6" s="64">
+        <f ca="1">AJ6+3</f>
+        <v>44683</v>
+      </c>
+      <c r="AL6" s="64">
+        <f ca="1">AK6+2</f>
+        <v>44685</v>
+      </c>
+      <c r="AM6" s="64">
+        <f ca="1">AL6+2</f>
+        <v>44687</v>
+      </c>
+      <c r="AN6" s="64">
+        <f ca="1">AM6+3</f>
+        <v>44690</v>
+      </c>
+      <c r="AP6" s="64"/>
+      <c r="AT6" s="199"/>
     </row>
-    <row r="7" spans="2:32" ht="18.000000" customHeight="1">
-      <c r="B7" s="65" t="s">
+    <row r="7" spans="2:46" ht="18.000000" customHeight="1">
+      <c r="B7" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="104"/>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="104"/>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="104"/>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="104"/>
-      <c r="AE7" s="19" t="s">
+      <c r="C7" s="167"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="168"/>
+      <c r="R7" s="168"/>
+      <c r="S7" s="168"/>
+      <c r="T7" s="168"/>
+      <c r="U7" s="168"/>
+      <c r="V7" s="168"/>
+      <c r="W7" s="170"/>
+      <c r="X7" s="170"/>
+      <c r="Y7" s="168"/>
+      <c r="Z7" s="170"/>
+      <c r="AA7" s="170"/>
+      <c r="AB7" s="168"/>
+      <c r="AC7" s="168"/>
+      <c r="AD7" s="170"/>
+      <c r="AE7" s="222"/>
+      <c r="AF7" s="223"/>
+      <c r="AG7" s="235"/>
+      <c r="AH7" s="152"/>
+      <c r="AI7" s="152"/>
+      <c r="AJ7" s="170"/>
+      <c r="AK7" s="170"/>
+      <c r="AL7" s="223"/>
+      <c r="AM7" s="152"/>
+      <c r="AN7" s="223"/>
+      <c r="AP7" s="19" t="s">
         <v>19</v>
       </c>
+      <c r="AT7" s="199"/>
     </row>
-    <row r="8" spans="2:32" ht="30.000000" customHeight="1">
-      <c r="B8" s="66" t="s">
+    <row r="8" spans="2:46" ht="30.000000" customHeight="1">
+      <c r="B8" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="107"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="104"/>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="104"/>
-      <c r="AC8" s="85"/>
-      <c r="AD8" s="104"/>
-      <c r="AE8" s="19" t="s">
+      <c r="C8" s="173"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="174"/>
+      <c r="P8" s="174"/>
+      <c r="Q8" s="174"/>
+      <c r="R8" s="174"/>
+      <c r="S8" s="174"/>
+      <c r="T8" s="174"/>
+      <c r="U8" s="174"/>
+      <c r="V8" s="174"/>
+      <c r="W8" s="174"/>
+      <c r="X8" s="174"/>
+      <c r="Y8" s="174"/>
+      <c r="Z8" s="174"/>
+      <c r="AA8" s="174"/>
+      <c r="AB8" s="174"/>
+      <c r="AC8" s="174"/>
+      <c r="AD8" s="174"/>
+      <c r="AE8" s="175"/>
+      <c r="AF8" s="155"/>
+      <c r="AG8" s="224"/>
+      <c r="AH8" s="155"/>
+      <c r="AI8" s="155"/>
+      <c r="AJ8" s="155"/>
+      <c r="AK8" s="155"/>
+      <c r="AL8" s="155"/>
+      <c r="AM8" s="155"/>
+      <c r="AN8" s="155"/>
+      <c r="AP8" s="19" t="s">
         <v>18</v>
       </c>
+      <c r="AT8" s="199"/>
     </row>
-    <row r="9" spans="2:32" ht="30.000000" customHeight="1">
-      <c r="B9" s="66" t="s">
+    <row r="9" spans="2:46" ht="30.000000" customHeight="1">
+      <c r="B9" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="85"/>
-      <c r="W9" s="85"/>
-      <c r="X9" s="104"/>
-      <c r="Y9" s="85"/>
-      <c r="Z9" s="104"/>
-      <c r="AA9" s="85"/>
-      <c r="AB9" s="104"/>
-      <c r="AC9" s="85"/>
-      <c r="AD9" s="104"/>
-      <c r="AE9" s="19" t="s">
+      <c r="C9" s="176"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="202"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="202"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="174"/>
+      <c r="M9" s="174"/>
+      <c r="N9" s="174"/>
+      <c r="O9" s="174"/>
+      <c r="P9" s="174"/>
+      <c r="Q9" s="202"/>
+      <c r="R9" s="202"/>
+      <c r="S9" s="202"/>
+      <c r="T9" s="202"/>
+      <c r="U9" s="202"/>
+      <c r="V9" s="174"/>
+      <c r="W9" s="174"/>
+      <c r="X9" s="174"/>
+      <c r="Y9" s="174"/>
+      <c r="Z9" s="174"/>
+      <c r="AA9" s="174"/>
+      <c r="AB9" s="202"/>
+      <c r="AC9" s="202"/>
+      <c r="AD9" s="202"/>
+      <c r="AE9" s="233"/>
+      <c r="AF9" s="234"/>
+      <c r="AG9" s="234"/>
+      <c r="AH9" s="234"/>
+      <c r="AI9" s="155"/>
+      <c r="AJ9" s="234"/>
+      <c r="AK9" s="234"/>
+      <c r="AL9" s="234"/>
+      <c r="AM9" s="155"/>
+      <c r="AN9" s="155"/>
+      <c r="AP9" s="19" t="s">
         <v>19</v>
       </c>
+      <c r="AT9" s="199"/>
     </row>
-    <row r="10" spans="2:32" ht="30.000000" customHeight="1">
-      <c r="B10" s="66" t="s">
+    <row r="10" spans="2:46" ht="30.000000" customHeight="1">
+      <c r="B10" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="104"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="85"/>
-      <c r="AB10" s="85"/>
-      <c r="AC10" s="85"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="19" t="s">
+      <c r="C10" s="176"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="174"/>
+      <c r="O10" s="174"/>
+      <c r="P10" s="179"/>
+      <c r="Q10" s="174"/>
+      <c r="R10" s="174"/>
+      <c r="S10" s="179"/>
+      <c r="T10" s="174"/>
+      <c r="U10" s="174"/>
+      <c r="V10" s="174"/>
+      <c r="W10" s="174"/>
+      <c r="X10" s="174"/>
+      <c r="Y10" s="174"/>
+      <c r="Z10" s="174"/>
+      <c r="AA10" s="174"/>
+      <c r="AB10" s="174"/>
+      <c r="AC10" s="174"/>
+      <c r="AD10" s="174"/>
+      <c r="AE10" s="229"/>
+      <c r="AF10" s="230"/>
+      <c r="AG10" s="230"/>
+      <c r="AH10" s="230"/>
+      <c r="AI10" s="155"/>
+      <c r="AJ10" s="224"/>
+      <c r="AK10" s="230"/>
+      <c r="AL10" s="230"/>
+      <c r="AM10" s="155"/>
+      <c r="AN10" s="230"/>
+      <c r="AP10" s="19" t="s">
         <v>19</v>
       </c>
+      <c r="AT10" s="199"/>
     </row>
-    <row r="11" spans="2:32" ht="30.000000" customHeight="1">
-      <c r="B11" s="66" t="s">
+    <row r="11" spans="2:46" ht="30.000000" customHeight="1">
+      <c r="B11" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="104"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="104"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="104"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="104"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="104"/>
-      <c r="AC11" s="85"/>
-      <c r="AD11" s="104"/>
-      <c r="AE11" s="19" t="s">
+      <c r="C11" s="176"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="203"/>
+      <c r="H11" s="203"/>
+      <c r="I11" s="203"/>
+      <c r="J11" s="203"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="174"/>
+      <c r="M11" s="174"/>
+      <c r="N11" s="203"/>
+      <c r="O11" s="203"/>
+      <c r="P11" s="203"/>
+      <c r="Q11" s="203"/>
+      <c r="R11" s="203"/>
+      <c r="S11" s="203"/>
+      <c r="T11" s="203"/>
+      <c r="U11" s="203"/>
+      <c r="V11" s="203"/>
+      <c r="W11" s="174"/>
+      <c r="X11" s="174"/>
+      <c r="Y11" s="203"/>
+      <c r="Z11" s="203"/>
+      <c r="AA11" s="203"/>
+      <c r="AB11" s="203"/>
+      <c r="AC11" s="203"/>
+      <c r="AD11" s="203"/>
+      <c r="AE11" s="175"/>
+      <c r="AF11" s="155"/>
+      <c r="AG11" s="224"/>
+      <c r="AH11" s="155"/>
+      <c r="AI11" s="155"/>
+      <c r="AJ11" s="240"/>
+      <c r="AK11" s="240"/>
+      <c r="AL11" s="240"/>
+      <c r="AM11" s="240"/>
+      <c r="AN11" s="155"/>
+      <c r="AP11" s="19" t="s">
         <v>19</v>
       </c>
+      <c r="AT11" s="199"/>
     </row>
-    <row r="12" spans="2:32" ht="30.000000" customHeight="1">
-      <c r="B12" s="66" t="s">
+    <row r="12" spans="2:46" ht="30.000000" customHeight="1">
+      <c r="B12" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="104"/>
-      <c r="S12" s="85"/>
-      <c r="T12" s="104"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="104"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="104"/>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="104"/>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="104"/>
-      <c r="AC12" s="85"/>
-      <c r="AD12" s="104"/>
-      <c r="AE12" s="19" t="s">
+      <c r="C12" s="176"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="201"/>
+      <c r="G12" s="201"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="174"/>
+      <c r="M12" s="174"/>
+      <c r="N12" s="174"/>
+      <c r="O12" s="174"/>
+      <c r="P12" s="207"/>
+      <c r="Q12" s="207"/>
+      <c r="R12" s="207"/>
+      <c r="S12" s="207"/>
+      <c r="T12" s="207"/>
+      <c r="U12" s="207"/>
+      <c r="V12" s="207"/>
+      <c r="W12" s="207"/>
+      <c r="X12" s="207"/>
+      <c r="Y12" s="174"/>
+      <c r="Z12" s="174"/>
+      <c r="AA12" s="174"/>
+      <c r="AB12" s="207"/>
+      <c r="AC12" s="207"/>
+      <c r="AD12" s="207"/>
+      <c r="AE12" s="225"/>
+      <c r="AF12" s="226"/>
+      <c r="AG12" s="226"/>
+      <c r="AH12" s="226"/>
+      <c r="AI12" s="226"/>
+      <c r="AJ12" s="226"/>
+      <c r="AK12" s="226"/>
+      <c r="AL12" s="226"/>
+      <c r="AM12" s="226"/>
+      <c r="AN12" s="226"/>
+      <c r="AP12" s="19" t="s">
         <v>19</v>
       </c>
+      <c r="AT12" s="199"/>
     </row>
-    <row r="13" spans="2:32" ht="30.000000" customHeight="1">
-      <c r="B13" s="66" t="s">
+    <row r="13" spans="2:46" ht="30.000000" customHeight="1">
+      <c r="B13" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="104"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="104"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="104"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="104"/>
-      <c r="AA13" s="85"/>
-      <c r="AB13" s="104"/>
-      <c r="AC13" s="85"/>
-      <c r="AD13" s="104"/>
-      <c r="AE13" s="19" t="s">
+      <c r="C13" s="176"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="206"/>
+      <c r="I13" s="206"/>
+      <c r="J13" s="206"/>
+      <c r="K13" s="206"/>
+      <c r="L13" s="174"/>
+      <c r="M13" s="174"/>
+      <c r="N13" s="174"/>
+      <c r="O13" s="174"/>
+      <c r="P13" s="174"/>
+      <c r="Q13" s="174"/>
+      <c r="R13" s="206"/>
+      <c r="S13" s="206"/>
+      <c r="T13" s="206"/>
+      <c r="U13" s="206"/>
+      <c r="V13" s="206"/>
+      <c r="W13" s="174"/>
+      <c r="X13" s="174"/>
+      <c r="Y13" s="174"/>
+      <c r="Z13" s="174"/>
+      <c r="AA13" s="174"/>
+      <c r="AB13" s="174"/>
+      <c r="AC13" s="174"/>
+      <c r="AD13" s="174"/>
+      <c r="AE13" s="175"/>
+      <c r="AF13" s="155"/>
+      <c r="AG13" s="236"/>
+      <c r="AH13" s="155"/>
+      <c r="AI13" s="155"/>
+      <c r="AJ13" s="236"/>
+      <c r="AK13" s="236"/>
+      <c r="AL13" s="236"/>
+      <c r="AM13" s="155"/>
+      <c r="AN13" s="155"/>
+      <c r="AP13" s="19" t="s">
         <v>19</v>
       </c>
+      <c r="AT13" s="199"/>
     </row>
-    <row r="14" spans="2:32" ht="30.000000" customHeight="1">
-      <c r="B14" s="66" t="s">
+    <row r="14" spans="2:46" ht="30.000000" customHeight="1">
+      <c r="B14" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="104"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="104"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="104"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="104"/>
-      <c r="AC14" s="85"/>
-      <c r="AD14" s="104"/>
-      <c r="AE14" s="19" t="s">
+      <c r="C14" s="176"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="174"/>
+      <c r="M14" s="174"/>
+      <c r="N14" s="183"/>
+      <c r="O14" s="183"/>
+      <c r="P14" s="183"/>
+      <c r="Q14" s="174"/>
+      <c r="R14" s="174"/>
+      <c r="S14" s="183"/>
+      <c r="T14" s="183"/>
+      <c r="U14" s="183"/>
+      <c r="V14" s="183"/>
+      <c r="W14" s="174"/>
+      <c r="X14" s="174"/>
+      <c r="Y14" s="174"/>
+      <c r="Z14" s="174"/>
+      <c r="AA14" s="174"/>
+      <c r="AB14" s="183"/>
+      <c r="AC14" s="183"/>
+      <c r="AD14" s="183"/>
+      <c r="AE14" s="175"/>
+      <c r="AF14" s="155"/>
+      <c r="AG14" s="224"/>
+      <c r="AH14" s="238"/>
+      <c r="AI14" s="238"/>
+      <c r="AJ14" s="238"/>
+      <c r="AK14" s="238"/>
+      <c r="AL14" s="238"/>
+      <c r="AM14" s="238"/>
+      <c r="AN14" s="155"/>
+      <c r="AP14" s="19" t="s">
         <v>19</v>
       </c>
+      <c r="AT14" s="199"/>
     </row>
-    <row r="15" spans="2:32" ht="30.000000" customHeight="1">
-      <c r="B15" s="66" t="s">
+    <row r="15" spans="2:46" ht="30.000000" customHeight="1">
+      <c r="B15" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="104"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="85"/>
-      <c r="T15" s="104"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="104"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="104"/>
-      <c r="Y15" s="85"/>
-      <c r="Z15" s="104"/>
-      <c r="AA15" s="85"/>
-      <c r="AB15" s="104"/>
-      <c r="AC15" s="85"/>
-      <c r="AD15" s="104"/>
-      <c r="AE15" s="19" t="s">
+      <c r="C15" s="176"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="184"/>
+      <c r="K15" s="184"/>
+      <c r="L15" s="174"/>
+      <c r="M15" s="174"/>
+      <c r="N15" s="174"/>
+      <c r="O15" s="174"/>
+      <c r="P15" s="174"/>
+      <c r="Q15" s="174"/>
+      <c r="R15" s="174"/>
+      <c r="S15" s="174"/>
+      <c r="T15" s="174"/>
+      <c r="U15" s="174"/>
+      <c r="V15" s="174"/>
+      <c r="W15" s="184"/>
+      <c r="X15" s="184"/>
+      <c r="Y15" s="174"/>
+      <c r="Z15" s="174"/>
+      <c r="AA15" s="174"/>
+      <c r="AB15" s="184"/>
+      <c r="AC15" s="184"/>
+      <c r="AD15" s="184"/>
+      <c r="AE15" s="227"/>
+      <c r="AF15" s="228"/>
+      <c r="AG15" s="224"/>
+      <c r="AH15" s="155"/>
+      <c r="AI15" s="155"/>
+      <c r="AJ15" s="184"/>
+      <c r="AK15" s="227"/>
+      <c r="AL15" s="228"/>
+      <c r="AM15" s="155"/>
+      <c r="AN15" s="228"/>
+      <c r="AP15" s="19" t="s">
         <v>19</v>
       </c>
+      <c r="AT15" s="199"/>
     </row>
-    <row r="16" spans="2:32" ht="30.000000" customHeight="1">
-      <c r="B16" s="100" t="s">
+    <row r="16" spans="2:46" ht="30.000000" customHeight="1">
+      <c r="B16" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="85"/>
-      <c r="T16" s="104"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="104"/>
-      <c r="W16" s="85"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="85"/>
-      <c r="Z16" s="104"/>
-      <c r="AA16" s="85"/>
-      <c r="AB16" s="104"/>
-      <c r="AC16" s="85"/>
-      <c r="AD16" s="104"/>
-      <c r="AE16" s="19" t="s">
+      <c r="C16" s="176"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="212"/>
+      <c r="M16" s="212"/>
+      <c r="N16" s="174"/>
+      <c r="O16" s="174"/>
+      <c r="P16" s="174"/>
+      <c r="Q16" s="174"/>
+      <c r="R16" s="174"/>
+      <c r="S16" s="174"/>
+      <c r="T16" s="174"/>
+      <c r="U16" s="174"/>
+      <c r="V16" s="174"/>
+      <c r="W16" s="174"/>
+      <c r="X16" s="174"/>
+      <c r="Y16" s="212"/>
+      <c r="Z16" s="212"/>
+      <c r="AA16" s="174"/>
+      <c r="AB16" s="174"/>
+      <c r="AC16" s="174"/>
+      <c r="AD16" s="174"/>
+      <c r="AE16" s="175"/>
+      <c r="AF16" s="155"/>
+      <c r="AG16" s="224"/>
+      <c r="AH16" s="155"/>
+      <c r="AI16" s="155"/>
+      <c r="AJ16" s="214"/>
+      <c r="AK16" s="214"/>
+      <c r="AL16" s="214"/>
+      <c r="AM16" s="214"/>
+      <c r="AN16" s="155"/>
+      <c r="AP16" s="19" t="s">
         <v>19</v>
       </c>
+      <c r="AT16" s="199"/>
     </row>
-    <row r="17" spans="2:31" ht="30.000000" customHeight="1">
-      <c r="B17" s="100" t="s">
+    <row r="17" spans="2:46" ht="30.000000" customHeight="1">
+      <c r="B17" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="126"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="104"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="104"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="104"/>
-      <c r="W17" s="85"/>
-      <c r="X17" s="104"/>
-      <c r="Y17" s="85"/>
-      <c r="Z17" s="104"/>
-      <c r="AA17" s="85"/>
-      <c r="AB17" s="104"/>
-      <c r="AC17" s="85"/>
-      <c r="AD17" s="104"/>
-      <c r="AE17" s="19" t="s">
+      <c r="C17" s="176"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="186"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="186"/>
+      <c r="J17" s="186"/>
+      <c r="K17" s="174"/>
+      <c r="L17" s="174"/>
+      <c r="M17" s="174"/>
+      <c r="N17" s="186"/>
+      <c r="O17" s="186"/>
+      <c r="P17" s="174"/>
+      <c r="Q17" s="186"/>
+      <c r="R17" s="186"/>
+      <c r="S17" s="174"/>
+      <c r="T17" s="174"/>
+      <c r="U17" s="174"/>
+      <c r="V17" s="174"/>
+      <c r="W17" s="174"/>
+      <c r="X17" s="174"/>
+      <c r="Y17" s="174"/>
+      <c r="Z17" s="174"/>
+      <c r="AA17" s="174"/>
+      <c r="AB17" s="186"/>
+      <c r="AC17" s="186"/>
+      <c r="AD17" s="186"/>
+      <c r="AE17" s="175"/>
+      <c r="AF17" s="155"/>
+      <c r="AG17" s="186"/>
+      <c r="AH17" s="155"/>
+      <c r="AI17" s="155"/>
+      <c r="AJ17" s="186"/>
+      <c r="AK17" s="186"/>
+      <c r="AL17" s="186"/>
+      <c r="AM17" s="155"/>
+      <c r="AN17" s="186"/>
+      <c r="AP17" s="19" t="s">
         <v>19</v>
       </c>
+      <c r="AT17" s="199"/>
     </row>
-    <row r="18" spans="2:31" ht="30.000000" customHeight="1">
-      <c r="B18" s="100"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="104"/>
-      <c r="U18" s="85"/>
-      <c r="V18" s="104"/>
-      <c r="W18" s="85"/>
-      <c r="X18" s="104"/>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="104"/>
-      <c r="AA18" s="85"/>
-      <c r="AB18" s="104"/>
-      <c r="AC18" s="85"/>
-      <c r="AD18" s="104"/>
-      <c r="AE18" s="19"/>
+    <row r="18" spans="2:46" ht="30.000000" customHeight="1">
+      <c r="B18" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="176"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="174"/>
+      <c r="N18" s="174"/>
+      <c r="O18" s="174"/>
+      <c r="P18" s="174"/>
+      <c r="Q18" s="204"/>
+      <c r="R18" s="204"/>
+      <c r="S18" s="174"/>
+      <c r="T18" s="174"/>
+      <c r="U18" s="174"/>
+      <c r="V18" s="174"/>
+      <c r="W18" s="174"/>
+      <c r="X18" s="174"/>
+      <c r="Y18" s="204"/>
+      <c r="Z18" s="204"/>
+      <c r="AA18" s="204"/>
+      <c r="AB18" s="174"/>
+      <c r="AC18" s="174"/>
+      <c r="AD18" s="174"/>
+      <c r="AE18" s="175"/>
+      <c r="AF18" s="155"/>
+      <c r="AG18" s="224"/>
+      <c r="AH18" s="155"/>
+      <c r="AI18" s="155"/>
+      <c r="AJ18" s="204"/>
+      <c r="AK18" s="204"/>
+      <c r="AL18" s="204"/>
+      <c r="AM18" s="204"/>
+      <c r="AN18" s="155"/>
+      <c r="AP18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT18" s="199"/>
     </row>
-    <row r="19" spans="2:31" ht="30.000000" customHeight="1">
-      <c r="B19" s="100"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="104"/>
-      <c r="U19" s="85"/>
-      <c r="V19" s="104"/>
-      <c r="W19" s="85"/>
-      <c r="X19" s="104"/>
-      <c r="Y19" s="85"/>
-      <c r="Z19" s="104"/>
-      <c r="AA19" s="85"/>
-      <c r="AB19" s="104"/>
-      <c r="AC19" s="85"/>
-      <c r="AD19" s="104"/>
-      <c r="AE19" s="19"/>
+    <row r="19" spans="2:46" ht="30.000000" customHeight="1">
+      <c r="B19" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="176"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="174"/>
+      <c r="K19" s="174"/>
+      <c r="L19" s="174"/>
+      <c r="M19" s="174"/>
+      <c r="N19" s="174"/>
+      <c r="O19" s="174"/>
+      <c r="P19" s="174"/>
+      <c r="Q19" s="174"/>
+      <c r="R19" s="174"/>
+      <c r="S19" s="174"/>
+      <c r="T19" s="174"/>
+      <c r="U19" s="174"/>
+      <c r="V19" s="174"/>
+      <c r="W19" s="174"/>
+      <c r="X19" s="174"/>
+      <c r="Y19" s="210"/>
+      <c r="Z19" s="210"/>
+      <c r="AA19" s="210"/>
+      <c r="AB19" s="174"/>
+      <c r="AC19" s="174"/>
+      <c r="AD19" s="174"/>
+      <c r="AE19" s="175"/>
+      <c r="AF19" s="155"/>
+      <c r="AG19" s="224"/>
+      <c r="AH19" s="155"/>
+      <c r="AI19" s="155"/>
+      <c r="AJ19" s="155"/>
+      <c r="AK19" s="210"/>
+      <c r="AL19" s="210"/>
+      <c r="AM19" s="210"/>
+      <c r="AN19" s="210"/>
+      <c r="AP19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT19" s="199"/>
     </row>
-    <row r="20" spans="2:31" ht="30.000000" customHeight="1">
-      <c r="B20" s="14"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="104"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="104"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="104"/>
-      <c r="U20" s="85"/>
-      <c r="V20" s="104"/>
-      <c r="W20" s="85"/>
-      <c r="X20" s="104"/>
-      <c r="Y20" s="85"/>
-      <c r="Z20" s="104"/>
-      <c r="AA20" s="85"/>
-      <c r="AB20" s="104"/>
-      <c r="AC20" s="85"/>
-      <c r="AD20" s="104"/>
-      <c r="AE20" s="19"/>
+    <row r="20" spans="2:46" ht="30.000000" customHeight="1">
+      <c r="B20" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="176"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="174"/>
+      <c r="K20" s="174"/>
+      <c r="L20" s="174"/>
+      <c r="M20" s="174"/>
+      <c r="N20" s="174"/>
+      <c r="O20" s="174"/>
+      <c r="P20" s="174"/>
+      <c r="Q20" s="174"/>
+      <c r="R20" s="174"/>
+      <c r="S20" s="174"/>
+      <c r="T20" s="174"/>
+      <c r="U20" s="208"/>
+      <c r="V20" s="208"/>
+      <c r="W20" s="208"/>
+      <c r="X20" s="174"/>
+      <c r="Y20" s="174"/>
+      <c r="Z20" s="174"/>
+      <c r="AA20" s="174"/>
+      <c r="AB20" s="174"/>
+      <c r="AC20" s="174"/>
+      <c r="AD20" s="174"/>
+      <c r="AE20" s="175"/>
+      <c r="AF20" s="155"/>
+      <c r="AG20" s="224"/>
+      <c r="AH20" s="155"/>
+      <c r="AI20" s="155"/>
+      <c r="AJ20" s="208"/>
+      <c r="AK20" s="208"/>
+      <c r="AL20" s="208"/>
+      <c r="AM20" s="208"/>
+      <c r="AN20" s="208"/>
+      <c r="AP20" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT20" s="199"/>
     </row>
-    <row r="21" spans="2:31" ht="30.000000" customHeight="1">
-      <c r="B21" s="14"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="105"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="105"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="105"/>
-      <c r="S21" s="106"/>
-      <c r="T21" s="105"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="105"/>
-      <c r="W21" s="106"/>
-      <c r="X21" s="105"/>
-      <c r="Y21" s="106"/>
-      <c r="Z21" s="105"/>
-      <c r="AA21" s="106"/>
-      <c r="AB21" s="105"/>
-      <c r="AC21" s="106"/>
-      <c r="AD21" s="105"/>
-      <c r="AE21" s="19"/>
+    <row r="21" spans="2:46" ht="30.000000" customHeight="1">
+      <c r="B21" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="176"/>
+      <c r="D21" s="174"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="174"/>
+      <c r="J21" s="174"/>
+      <c r="K21" s="174"/>
+      <c r="L21" s="174"/>
+      <c r="M21" s="174"/>
+      <c r="N21" s="174"/>
+      <c r="O21" s="174"/>
+      <c r="P21" s="174"/>
+      <c r="Q21" s="174"/>
+      <c r="R21" s="174"/>
+      <c r="S21" s="174"/>
+      <c r="T21" s="174"/>
+      <c r="U21" s="174"/>
+      <c r="V21" s="174"/>
+      <c r="W21" s="219"/>
+      <c r="X21" s="219"/>
+      <c r="Y21" s="174"/>
+      <c r="Z21" s="174"/>
+      <c r="AA21" s="221"/>
+      <c r="AB21" s="219"/>
+      <c r="AC21" s="219"/>
+      <c r="AD21" s="219"/>
+      <c r="AE21" s="220"/>
+      <c r="AF21" s="221"/>
+      <c r="AG21" s="224"/>
+      <c r="AH21" s="155"/>
+      <c r="AI21" s="155"/>
+      <c r="AJ21" s="221"/>
+      <c r="AK21" s="221"/>
+      <c r="AL21" s="221"/>
+      <c r="AM21" s="221"/>
+      <c r="AN21" s="221"/>
+      <c r="AP21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT21" s="199"/>
     </row>
-    <row r="22" spans="2:31" ht="30.000000" customHeight="1">
-      <c r="B22" s="14"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="104"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="104"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="104"/>
-      <c r="W22" s="85"/>
-      <c r="X22" s="104"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="104"/>
-      <c r="AA22" s="85"/>
-      <c r="AB22" s="104"/>
-      <c r="AC22" s="85"/>
-      <c r="AD22" s="104"/>
-      <c r="AE22" s="19"/>
+    <row r="22" spans="2:46" ht="30.000000" customHeight="1">
+      <c r="B22" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="176"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="174"/>
+      <c r="L22" s="174"/>
+      <c r="M22" s="174"/>
+      <c r="N22" s="174"/>
+      <c r="O22" s="174"/>
+      <c r="P22" s="174"/>
+      <c r="Q22" s="174"/>
+      <c r="R22" s="174"/>
+      <c r="S22" s="174"/>
+      <c r="T22" s="174"/>
+      <c r="U22" s="174"/>
+      <c r="V22" s="174"/>
+      <c r="W22" s="174"/>
+      <c r="X22" s="174"/>
+      <c r="Y22" s="174"/>
+      <c r="Z22" s="174"/>
+      <c r="AA22" s="217"/>
+      <c r="AB22" s="215"/>
+      <c r="AC22" s="215"/>
+      <c r="AD22" s="215"/>
+      <c r="AE22" s="216"/>
+      <c r="AF22" s="217"/>
+      <c r="AG22" s="224"/>
+      <c r="AH22" s="155"/>
+      <c r="AI22" s="155"/>
+      <c r="AJ22" s="217"/>
+      <c r="AK22" s="217"/>
+      <c r="AL22" s="217"/>
+      <c r="AM22" s="217"/>
+      <c r="AN22" s="155"/>
+      <c r="AP22" s="19" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="23" spans="2:31" ht="30.000000" customHeight="1">
-      <c r="B23" s="14"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="105"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="105"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="105"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="105"/>
-      <c r="W23" s="106"/>
-      <c r="X23" s="105"/>
-      <c r="Y23" s="106"/>
-      <c r="Z23" s="105"/>
-      <c r="AA23" s="106"/>
-      <c r="AB23" s="105"/>
-      <c r="AC23" s="106"/>
-      <c r="AD23" s="105"/>
-      <c r="AE23" s="19"/>
+    <row r="23" spans="2:46" ht="30.000000" customHeight="1">
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="78"/>
+      <c r="T23" s="78"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="78"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="78"/>
+      <c r="AA23" s="78"/>
+      <c r="AB23" s="78"/>
+      <c r="AC23" s="78"/>
+      <c r="AD23" s="78"/>
     </row>
-    <row r="24" spans="2:31" ht="30.000000" customHeight="1">
-      <c r="B24" s="14"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="104"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="104"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="104"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="104"/>
-      <c r="W24" s="85"/>
-      <c r="X24" s="104"/>
-      <c r="Y24" s="85"/>
-      <c r="Z24" s="104"/>
-      <c r="AA24" s="85"/>
-      <c r="AB24" s="104"/>
-      <c r="AC24" s="85"/>
-      <c r="AD24" s="104"/>
-      <c r="AE24" s="19"/>
+    <row r="24" spans="2:46" ht="30.000000" customHeight="1">
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="78"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="78"/>
+      <c r="AA24" s="78"/>
+      <c r="AB24" s="78"/>
+      <c r="AC24" s="78"/>
+      <c r="AD24" s="78"/>
     </row>
-    <row r="25" spans="2:31" ht="30.000000" customHeight="1">
-      <c r="B25" s="14"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="105"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="105"/>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="105"/>
-      <c r="S25" s="106"/>
-      <c r="T25" s="105"/>
-      <c r="U25" s="106"/>
-      <c r="V25" s="105"/>
-      <c r="W25" s="106"/>
-      <c r="X25" s="105"/>
-      <c r="Y25" s="106"/>
-      <c r="Z25" s="105"/>
-      <c r="AA25" s="106"/>
-      <c r="AB25" s="105"/>
-      <c r="AC25" s="106"/>
-      <c r="AD25" s="105"/>
-      <c r="AE25" s="19"/>
+    <row r="25" spans="2:46" ht="30.000000" customHeight="1">
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="78"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="78"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="78"/>
+      <c r="AA25" s="78"/>
+      <c r="AB25" s="78"/>
+      <c r="AC25" s="78"/>
+      <c r="AD25" s="78"/>
     </row>
-    <row r="26" spans="2:31" ht="30.000000" customHeight="1">
-      <c r="B26" s="14"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="104"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="104"/>
-      <c r="S26" s="85"/>
-      <c r="T26" s="104"/>
-      <c r="U26" s="85"/>
-      <c r="V26" s="104"/>
-      <c r="W26" s="85"/>
-      <c r="X26" s="104"/>
-      <c r="Y26" s="85"/>
-      <c r="Z26" s="104"/>
-      <c r="AA26" s="85"/>
-      <c r="AB26" s="104"/>
-      <c r="AC26" s="85"/>
-      <c r="AD26" s="104"/>
-      <c r="AE26" s="19"/>
-    </row>
-    <row r="27" spans="2:31" ht="30.000000" customHeight="1">
-      <c r="B27" s="95"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="97"/>
-      <c r="S27" s="97"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="97"/>
-      <c r="V27" s="97"/>
-      <c r="W27" s="97"/>
-      <c r="X27" s="97"/>
-      <c r="Y27" s="97"/>
-      <c r="Z27" s="97"/>
-      <c r="AA27" s="97"/>
-      <c r="AB27" s="97"/>
-      <c r="AC27" s="97"/>
-      <c r="AD27" s="99"/>
-    </row>
-    <row r="28" spans="2:31" ht="30.000000" customHeight="1">
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="93"/>
-      <c r="S28" s="93"/>
-      <c r="T28" s="93"/>
-      <c r="U28" s="93"/>
-      <c r="V28" s="93"/>
-      <c r="W28" s="93"/>
-      <c r="X28" s="93"/>
-      <c r="Y28" s="93"/>
-      <c r="Z28" s="93"/>
-      <c r="AA28" s="93"/>
-      <c r="AB28" s="93"/>
-      <c r="AC28" s="93"/>
-      <c r="AD28" s="93"/>
-    </row>
-    <row r="29" spans="2:31">
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="92"/>
-      <c r="R29" s="93"/>
-      <c r="S29" s="93"/>
-      <c r="T29" s="93"/>
-      <c r="U29" s="93"/>
-      <c r="V29" s="93"/>
-      <c r="W29" s="93"/>
-      <c r="X29" s="93"/>
-      <c r="Y29" s="93"/>
-      <c r="Z29" s="93"/>
-      <c r="AA29" s="93"/>
-      <c r="AB29" s="93"/>
-      <c r="AC29" s="93"/>
-      <c r="AD29" s="93"/>
-    </row>
-    <row r="30" spans="2:31">
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="92"/>
-      <c r="Q30" s="92"/>
-      <c r="R30" s="93"/>
-      <c r="S30" s="93"/>
-      <c r="T30" s="93"/>
-      <c r="U30" s="93"/>
-      <c r="V30" s="93"/>
-      <c r="W30" s="93"/>
-      <c r="X30" s="93"/>
-      <c r="Y30" s="93"/>
-      <c r="Z30" s="93"/>
-      <c r="AA30" s="93"/>
-      <c r="AB30" s="93"/>
-      <c r="AC30" s="93"/>
-      <c r="AD30" s="93"/>
-    </row>
-    <row r="31" spans="2:31">
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="93"/>
-      <c r="S31" s="93"/>
-      <c r="T31" s="93"/>
-      <c r="U31" s="93"/>
-      <c r="V31" s="93"/>
-      <c r="W31" s="93"/>
-      <c r="X31" s="93"/>
-      <c r="Y31" s="93"/>
-      <c r="Z31" s="93"/>
-      <c r="AA31" s="93"/>
-      <c r="AB31" s="93"/>
-      <c r="AC31" s="93"/>
-      <c r="AD31" s="93"/>
-    </row>
+    <row r="26" ht="30.000000" customHeight="1"/>
+    <row r="27" ht="30.000000" customHeight="1"/>
+    <row r="28" ht="30.000000" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:AE1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C5:AD6">
-    <cfRule type="expression" dxfId="0" priority="1" operator="" text="">
-      <formula>C$7=TODAY()</formula>
+  <conditionalFormatting sqref="AE4:AJ4 AS4 C5:X6 Z5:AE6 AE5:AK6 AS5:AS6">
+    <cfRule type="expression" dxfId="0" priority="120" operator="" text="">
+      <formula>BG$7=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <conditionalFormatting sqref="AT4:AT5">
+    <cfRule type="expression" dxfId="0" priority="103" operator="" text="">
+      <formula>AT$7=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y5:AE6">
+    <cfRule type="expression" dxfId="0" priority="86" operator="" text="">
+      <formula>Y$7=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG5:AK6">
+    <cfRule type="expression" dxfId="0" priority="48" operator="" text="">
+      <formula>AG$7=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF5:AK6">
+    <cfRule type="expression" dxfId="0" priority="49" operator="" text="">
+      <formula>AF$7=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM5:AN6">
+    <cfRule type="expression" dxfId="0" priority="21" operator="" text="">
+      <formula>AM$7=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL5:AN6">
+    <cfRule type="expression" dxfId="0" priority="22" operator="" text="">
+      <formula>AL$7=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP4">
+    <cfRule type="expression" dxfId="0" priority="1" operator="" text="">
+      <formula>AP$7=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP5:AP6">
+    <cfRule type="expression" dxfId="0" priority="2" operator="" text="">
+      <formula>AP$7=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP5:AP6">
+    <cfRule type="expression" dxfId="0" priority="3" operator="" text="">
+      <formula>AP$7=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="7">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 워크시트에서 프로젝트 시간 표시 막대를 만듭니다. C2 셀에서 시작 날짜를 입력하고 기타 세부 정보를 B4 셀에서 시작합니다." sqref="A1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 시작 날짜를 입력합니다." sqref="B2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 시작 날짜를 입력합니다." sqref="C2:E2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 이 워크시트의 제목이 표시됩니다." sqref="B1:AE1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B 열에서 한 사용자에게 할당된 각 작업에 대한 작업 상태를 아래에 있는 셀에 업데이트" sqref="AE4:AE6"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행의 C~I, J~P, Q~W 및 X~AD의 셀 블록에는 주 번호가 표시됩니다." sqref="B4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="월이 이 행에서 자동으로 업데이트됩니다." sqref="B5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="평일이 이 행에서 자동으로 업데이트됩니다." sqref="B6"/>

--- a/Assets/Curriculum/창신INC 일정 관리.xlsx
+++ b/Assets/Curriculum/창신INC 일정 관리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="6" rupBuild="9.103.96.45032"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 시간 표시 막대" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
     <numFmt numFmtId="166" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="m&quot;월&quot;"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="56">
     <font>
       <sz val="11.0"/>
       <name val="Malgun Gothic"/>
@@ -684,6 +684,26 @@
       <sz val="11.0"/>
       <name val="Malgun Gothic"/>
       <color theme="0"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="0" tint="-0.150000"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="0" tint="-0.249980"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="0" tint="-0.349990"/>
     </font>
     <font>
       <sz val="15.0"/>
@@ -1596,7 +1616,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2322,6 +2342,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="40" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="48" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="48" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="48" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="48" borderId="3" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2606,10 +2638,10 @@
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AT25"/>
+  <dimension ref="B1:AT28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AT16" sqref="AT16"/>
+      <selection activeCell="AP15" sqref="AP15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.000000" customHeight="1"/>
@@ -2619,7 +2651,9 @@
     <col min="3" max="17" style="3" width="5.63000011" customWidth="1" outlineLevel="0"/>
     <col min="18" max="30" style="1" width="5.63000011" customWidth="1" outlineLevel="0"/>
     <col min="31" max="31" style="4" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="32" max="41" style="1" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="32" max="37" style="1" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="38" max="38" style="1" width="12.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="39" max="41" style="1" width="5.63000011" customWidth="1" outlineLevel="0"/>
     <col min="42" max="43" style="1" width="12.88000011" customWidth="1" outlineLevel="0"/>
     <col min="44" max="44" style="1" width="5.63000011" customWidth="1" outlineLevel="0"/>
     <col min="45" max="45" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
@@ -2666,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="35">
-        <f ca="1">TODAY()-37</f>
+        <f ca="1">TODAY()-51</f>
         <v>44599</v>
       </c>
       <c r="D2" s="35"/>
@@ -2727,60 +2761,54 @@
         <f ca="1">IF(TEXT(R6,"m월")=TEXT(Q6,"m월"),"",LOWER(TEXT(R6,"m월")))</f>
         <v/>
       </c>
-      <c r="S4" s="68" t="str">
-        <f ca="1">IF(TEXT(S6,"m월")=TEXT(R6,"m월"),"",LOWER(TEXT(S6,"m월")))</f>
-        <v/>
-      </c>
-      <c r="T4" s="68" t="str">
+      <c r="S4" s="242" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="243" t="str">
         <f ca="1">IF(TEXT(T6,"m월")=TEXT(S6,"m월"),"",LOWER(TEXT(T6,"m월")))</f>
         <v/>
       </c>
-      <c r="U4" s="68" t="str">
+      <c r="U4" s="243" t="str">
         <f ca="1">IF(TEXT(U6,"m월")=TEXT(T6,"m월"),"",LOWER(TEXT(U6,"m월")))</f>
         <v/>
       </c>
-      <c r="V4" s="68" t="str">
+      <c r="V4" s="243" t="str">
         <f ca="1">IF(TEXT(V6,"m월")=TEXT(U6,"m월"),"",LOWER(TEXT(V6,"m월")))</f>
         <v/>
       </c>
-      <c r="W4" s="68" t="str">
+      <c r="W4" s="243" t="str">
         <f ca="1">IF(TEXT(W6,"m월")=TEXT(V6,"m월"),"",LOWER(TEXT(W6,"m월")))</f>
         <v/>
       </c>
-      <c r="X4" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y4" s="65"/>
+      <c r="X4" s="242"/>
+      <c r="Y4" s="242"/>
       <c r="Z4" s="139"/>
       <c r="AA4" s="139"/>
       <c r="AB4" s="139"/>
       <c r="AC4" s="139"/>
       <c r="AD4" s="139"/>
-      <c r="AE4" s="122"/>
-      <c r="AF4" s="123"/>
-      <c r="AG4" s="123" t="str">
+      <c r="AE4" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF4" s="121"/>
+      <c r="AG4" s="121" t="str">
         <f ca="1">IF(TEXT(AG6,"m월")=TEXT(AF6,"m월"),"",LOWER(TEXT(AG6,"m월")))</f>
         <v/>
       </c>
-      <c r="AH4" s="123" t="str">
+      <c r="AH4" s="121" t="str">
         <f ca="1">IF(TEXT(AH6,"m월")=TEXT(AG6,"m월"),"",LOWER(TEXT(AH6,"m월")))</f>
         <v/>
       </c>
-      <c r="AI4" s="123" t="str">
+      <c r="AI4" s="121" t="str">
         <f ca="1">IF(TEXT(AI6,"m월")=TEXT(AH6,"m월"),"",LOWER(TEXT(AI6,"m월")))</f>
         <v/>
       </c>
-      <c r="AJ4" s="123" t="str">
+      <c r="AJ4" s="121" t="str">
         <f ca="1">IF(TEXT(AJ6,"m월")=TEXT(AI6,"m월"),"",LOWER(TEXT(AJ6,"m월")))</f>
         <v/>
       </c>
-      <c r="AK4" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL4" s="67"/>
-      <c r="AM4" s="130"/>
-      <c r="AN4" s="130"/>
-      <c r="AP4" s="62"/>
+      <c r="AK4" s="67"/>
+      <c r="AL4" s="62"/>
       <c r="AT4" s="200"/>
     </row>
     <row r="5" spans="2:46" ht="18.750000" customHeight="1">
@@ -2843,43 +2871,43 @@
       </c>
       <c r="Q5" s="62" t="str">
         <f ca="1">LOWER(TEXT(Q6,"aaa"))</f>
-        <v>수</v>
+        <v>월</v>
       </c>
       <c r="R5" s="62" t="str">
         <f ca="1">LOWER(TEXT(R6,"aaa"))</f>
+        <v>수</v>
+      </c>
+      <c r="S5" s="244" t="str">
+        <f ca="1">LOWER(TEXT(S6,"aaa"))</f>
         <v>금</v>
       </c>
-      <c r="S5" s="62" t="str">
-        <f ca="1">LOWER(TEXT(S6,"aaa"))</f>
+      <c r="T5" s="244" t="str">
+        <f ca="1">LOWER(TEXT(T6,"aaa"))</f>
+        <v>금</v>
+      </c>
+      <c r="U5" s="244" t="str">
+        <f ca="1">LOWER(TEXT(U6,"aaa"))</f>
         <v>월</v>
       </c>
-      <c r="T5" s="62" t="str">
-        <f ca="1">LOWER(TEXT(T6,"aaa"))</f>
+      <c r="V5" s="244" t="str">
+        <f ca="1">LOWER(TEXT(V6,"aaa"))</f>
         <v>수</v>
       </c>
-      <c r="U5" s="62" t="str">
-        <f ca="1">LOWER(TEXT(U6,"aaa"))</f>
+      <c r="W5" s="244" t="str">
+        <f ca="1">LOWER(TEXT(W6,"aaa"))</f>
         <v>금</v>
       </c>
-      <c r="V5" s="62" t="str">
-        <f ca="1">LOWER(TEXT(V6,"aaa"))</f>
+      <c r="X5" s="244" t="str">
+        <f ca="1">LOWER(TEXT(X6,"aaa"))</f>
         <v>월</v>
       </c>
-      <c r="W5" s="62" t="str">
-        <f ca="1">LOWER(TEXT(W6,"aaa"))</f>
+      <c r="Y5" s="244" t="str">
+        <f ca="1">LOWER(TEXT(Y6,"aaa"))</f>
         <v>수</v>
-      </c>
-      <c r="X5" s="61" t="str">
-        <f ca="1">LOWER(TEXT(X6,"aaa"))</f>
-        <v>금</v>
-      </c>
-      <c r="Y5" s="61" t="str">
-        <f ca="1">LOWER(TEXT(Y6,"aaa"))</f>
-        <v>월</v>
       </c>
       <c r="Z5" s="61" t="str">
         <f ca="1">LOWER(TEXT(Z6,"aaa"))</f>
-        <v>수</v>
+        <v>목</v>
       </c>
       <c r="AA5" s="61" t="str">
         <f ca="1">LOWER(TEXT(AA6,"aaa"))</f>
@@ -2897,47 +2925,35 @@
         <f ca="1">LOWER(TEXT(AD6,"aaa"))</f>
         <v>금</v>
       </c>
-      <c r="AE5" s="61" t="str">
+      <c r="AE5" s="62" t="str">
         <f ca="1">LOWER(TEXT(AE6,"aaa"))</f>
         <v>월</v>
       </c>
-      <c r="AF5" s="61" t="str">
+      <c r="AF5" s="62" t="str">
         <f ca="1">LOWER(TEXT(AF6,"aaa"))</f>
+        <v>화</v>
+      </c>
+      <c r="AG5" s="62" t="str">
+        <f ca="1">LOWER(TEXT(AG6,"aaa"))</f>
         <v>수</v>
       </c>
-      <c r="AG5" s="61" t="str">
-        <f ca="1">LOWER(TEXT(AG6,"aaa"))</f>
+      <c r="AH5" s="62" t="str">
+        <f ca="1">LOWER(TEXT(AH6,"aaa"))</f>
         <v>금</v>
       </c>
-      <c r="AH5" s="61" t="str">
-        <f ca="1">LOWER(TEXT(AH6,"aaa"))</f>
+      <c r="AI5" s="62" t="str">
+        <f ca="1">LOWER(TEXT(AI6,"aaa"))</f>
         <v>월</v>
       </c>
-      <c r="AI5" s="61" t="str">
-        <f ca="1">LOWER(TEXT(AI6,"aaa"))</f>
+      <c r="AJ5" s="62" t="str">
+        <f ca="1">LOWER(TEXT(AJ6,"aaa"))</f>
         <v>수</v>
-      </c>
-      <c r="AJ5" s="61" t="str">
-        <f ca="1">LOWER(TEXT(AJ6,"aaa"))</f>
-        <v>금</v>
       </c>
       <c r="AK5" s="62" t="str">
         <f ca="1">LOWER(TEXT(AK6,"aaa"))</f>
-        <v>월</v>
-      </c>
-      <c r="AL5" s="62" t="str">
-        <f ca="1">LOWER(TEXT(AL6,"aaa"))</f>
-        <v>수</v>
-      </c>
-      <c r="AM5" s="62" t="str">
-        <f ca="1">LOWER(TEXT(AM6,"aaa"))</f>
         <v>금</v>
       </c>
-      <c r="AN5" s="62" t="str">
-        <f ca="1">LOWER(TEXT(AN6,"aaa"))</f>
-        <v>월</v>
-      </c>
-      <c r="AP5" s="62"/>
+      <c r="AL5" s="62"/>
       <c r="AT5" s="198"/>
     </row>
     <row r="6" spans="2:46" ht="12.000000" customHeight="1">
@@ -2999,102 +3015,90 @@
         <v>44634</v>
       </c>
       <c r="Q6" s="64">
-        <f ca="1">P6+2</f>
-        <v>44636</v>
+        <f ca="1">P6+14</f>
+        <v>44648</v>
       </c>
       <c r="R6" s="64">
         <f ca="1">Q6+2</f>
-        <v>44638</v>
-      </c>
-      <c r="S6" s="64">
-        <f ca="1">R6+3</f>
-        <v>44641</v>
-      </c>
-      <c r="T6" s="64">
-        <f ca="1">S6+2</f>
-        <v>44643</v>
-      </c>
-      <c r="U6" s="64">
-        <f ca="1">T6+2</f>
-        <v>44645</v>
-      </c>
-      <c r="V6" s="64">
-        <f ca="1">U6+3</f>
-        <v>44648</v>
-      </c>
-      <c r="W6" s="64">
+        <v>44650</v>
+      </c>
+      <c r="S6" s="245">
+        <f ca="1">R6+2</f>
+        <v>44652</v>
+      </c>
+      <c r="T6" s="245">
+        <f ca="1">S6+7</f>
+        <v>44659</v>
+      </c>
+      <c r="U6" s="245">
+        <f ca="1">T6+3</f>
+        <v>44662</v>
+      </c>
+      <c r="V6" s="245">
+        <f ca="1">U6+2</f>
+        <v>44664</v>
+      </c>
+      <c r="W6" s="245">
         <f ca="1">V6+2</f>
-        <v>44650</v>
-      </c>
-      <c r="X6" s="63">
-        <f ca="1">W6+2</f>
-        <v>44652</v>
-      </c>
-      <c r="Y6" s="63">
-        <f ca="1">X6+3</f>
-        <v>44655</v>
+        <v>44666</v>
+      </c>
+      <c r="X6" s="245">
+        <f ca="1">W6+3</f>
+        <v>44669</v>
+      </c>
+      <c r="Y6" s="245">
+        <f ca="1">X6+2</f>
+        <v>44671</v>
       </c>
       <c r="Z6" s="63">
-        <f ca="1">Y6+2</f>
-        <v>44657</v>
+        <f ca="1">Y6+1</f>
+        <v>44672</v>
       </c>
       <c r="AA6" s="63">
-        <f ca="1">Z6+2</f>
-        <v>44659</v>
+        <f ca="1">Z6+1</f>
+        <v>44673</v>
       </c>
       <c r="AB6" s="63">
         <f ca="1">AA6+3</f>
-        <v>44662</v>
+        <v>44676</v>
       </c>
       <c r="AC6" s="63">
         <f ca="1">AB6+2</f>
-        <v>44664</v>
+        <v>44678</v>
       </c>
       <c r="AD6" s="63">
         <f ca="1">AC6+2</f>
-        <v>44666</v>
-      </c>
-      <c r="AE6" s="63">
+        <v>44680</v>
+      </c>
+      <c r="AE6" s="64">
         <f ca="1">AD6+3</f>
-        <v>44669</v>
-      </c>
-      <c r="AF6" s="63">
-        <f ca="1">AE6+2</f>
-        <v>44671</v>
-      </c>
-      <c r="AG6" s="63">
-        <f ca="1">AF6+2</f>
-        <v>44673</v>
-      </c>
-      <c r="AH6" s="63">
-        <f ca="1">AG6+3</f>
-        <v>44676</v>
-      </c>
-      <c r="AI6" s="63">
-        <f ca="1">AH6+2</f>
-        <v>44678</v>
-      </c>
-      <c r="AJ6" s="63">
+        <v>44683</v>
+      </c>
+      <c r="AF6" s="64">
+        <f ca="1">AE6+1</f>
+        <v>44684</v>
+      </c>
+      <c r="AG6" s="64">
+        <f ca="1">AF6+1</f>
+        <v>44685</v>
+      </c>
+      <c r="AH6" s="64">
+        <f ca="1">AG6+2</f>
+        <v>44687</v>
+      </c>
+      <c r="AI6" s="64">
+        <f ca="1">AH6+3</f>
+        <v>44690</v>
+      </c>
+      <c r="AJ6" s="64">
         <f ca="1">AI6+2</f>
-        <v>44680</v>
+        <v>44692</v>
       </c>
       <c r="AK6" s="64">
-        <f ca="1">AJ6+3</f>
-        <v>44683</v>
-      </c>
-      <c r="AL6" s="64">
-        <f ca="1">AK6+2</f>
-        <v>44685</v>
-      </c>
-      <c r="AM6" s="64">
-        <f ca="1">AL6+2</f>
-        <v>44687</v>
-      </c>
-      <c r="AN6" s="64">
-        <f ca="1">AM6+3</f>
-        <v>44690</v>
-      </c>
-      <c r="AP6" s="64"/>
+        <f ca="1">AJ6+2</f>
+        <v>44694</v>
+      </c>
+      <c r="AL6" s="64"/>
       <c r="AT6" s="199"/>
     </row>
     <row r="7" spans="2:46" ht="18.000000" customHeight="1">
@@ -3136,10 +3140,7 @@
       <c r="AI7" s="152"/>
       <c r="AJ7" s="170"/>
       <c r="AK7" s="170"/>
-      <c r="AL7" s="223"/>
-      <c r="AM7" s="152"/>
-      <c r="AN7" s="223"/>
-      <c r="AP7" s="19" t="s">
+      <c r="AL7" s="19" t="s">
         <v>19</v>
       </c>
       <c r="AT7" s="199"/>
@@ -3183,10 +3184,7 @@
       <c r="AI8" s="155"/>
       <c r="AJ8" s="155"/>
       <c r="AK8" s="155"/>
-      <c r="AL8" s="155"/>
-      <c r="AM8" s="155"/>
-      <c r="AN8" s="155"/>
-      <c r="AP8" s="19" t="s">
+      <c r="AL8" s="19" t="s">
         <v>18</v>
       </c>
       <c r="AT8" s="199"/>
@@ -3230,10 +3228,7 @@
       <c r="AI9" s="155"/>
       <c r="AJ9" s="234"/>
       <c r="AK9" s="234"/>
-      <c r="AL9" s="234"/>
-      <c r="AM9" s="155"/>
-      <c r="AN9" s="155"/>
-      <c r="AP9" s="19" t="s">
+      <c r="AL9" s="19" t="s">
         <v>19</v>
       </c>
       <c r="AT9" s="199"/>
@@ -3277,10 +3272,7 @@
       <c r="AI10" s="155"/>
       <c r="AJ10" s="224"/>
       <c r="AK10" s="230"/>
-      <c r="AL10" s="230"/>
-      <c r="AM10" s="155"/>
-      <c r="AN10" s="230"/>
-      <c r="AP10" s="19" t="s">
+      <c r="AL10" s="19" t="s">
         <v>19</v>
       </c>
       <c r="AT10" s="199"/>
@@ -3324,10 +3316,7 @@
       <c r="AI11" s="155"/>
       <c r="AJ11" s="240"/>
       <c r="AK11" s="240"/>
-      <c r="AL11" s="240"/>
-      <c r="AM11" s="240"/>
-      <c r="AN11" s="155"/>
-      <c r="AP11" s="19" t="s">
+      <c r="AL11" s="19" t="s">
         <v>19</v>
       </c>
       <c r="AT11" s="199"/>
@@ -3371,10 +3360,7 @@
       <c r="AI12" s="226"/>
       <c r="AJ12" s="226"/>
       <c r="AK12" s="226"/>
-      <c r="AL12" s="226"/>
-      <c r="AM12" s="226"/>
-      <c r="AN12" s="226"/>
-      <c r="AP12" s="19" t="s">
+      <c r="AL12" s="19" t="s">
         <v>19</v>
       </c>
       <c r="AT12" s="199"/>
@@ -3418,10 +3404,7 @@
       <c r="AI13" s="155"/>
       <c r="AJ13" s="236"/>
       <c r="AK13" s="236"/>
-      <c r="AL13" s="236"/>
-      <c r="AM13" s="155"/>
-      <c r="AN13" s="155"/>
-      <c r="AP13" s="19" t="s">
+      <c r="AL13" s="19" t="s">
         <v>19</v>
       </c>
       <c r="AT13" s="199"/>
@@ -3465,10 +3448,7 @@
       <c r="AI14" s="238"/>
       <c r="AJ14" s="238"/>
       <c r="AK14" s="238"/>
-      <c r="AL14" s="238"/>
-      <c r="AM14" s="238"/>
-      <c r="AN14" s="155"/>
-      <c r="AP14" s="19" t="s">
+      <c r="AL14" s="19" t="s">
         <v>19</v>
       </c>
       <c r="AT14" s="199"/>
@@ -3512,10 +3492,7 @@
       <c r="AI15" s="155"/>
       <c r="AJ15" s="184"/>
       <c r="AK15" s="227"/>
-      <c r="AL15" s="228"/>
-      <c r="AM15" s="155"/>
-      <c r="AN15" s="228"/>
-      <c r="AP15" s="19" t="s">
+      <c r="AL15" s="19" t="s">
         <v>19</v>
       </c>
       <c r="AT15" s="199"/>
@@ -3559,10 +3536,7 @@
       <c r="AI16" s="155"/>
       <c r="AJ16" s="214"/>
       <c r="AK16" s="214"/>
-      <c r="AL16" s="214"/>
-      <c r="AM16" s="214"/>
-      <c r="AN16" s="155"/>
-      <c r="AP16" s="19" t="s">
+      <c r="AL16" s="19" t="s">
         <v>19</v>
       </c>
       <c r="AT16" s="199"/>
@@ -3606,10 +3580,7 @@
       <c r="AI17" s="155"/>
       <c r="AJ17" s="186"/>
       <c r="AK17" s="186"/>
-      <c r="AL17" s="186"/>
-      <c r="AM17" s="155"/>
-      <c r="AN17" s="186"/>
-      <c r="AP17" s="19" t="s">
+      <c r="AL17" s="19" t="s">
         <v>19</v>
       </c>
       <c r="AT17" s="199"/>
@@ -3653,10 +3624,7 @@
       <c r="AI18" s="155"/>
       <c r="AJ18" s="204"/>
       <c r="AK18" s="204"/>
-      <c r="AL18" s="204"/>
-      <c r="AM18" s="204"/>
-      <c r="AN18" s="155"/>
-      <c r="AP18" s="19" t="s">
+      <c r="AL18" s="19" t="s">
         <v>19</v>
       </c>
       <c r="AT18" s="199"/>
@@ -3700,10 +3668,7 @@
       <c r="AI19" s="155"/>
       <c r="AJ19" s="155"/>
       <c r="AK19" s="210"/>
-      <c r="AL19" s="210"/>
-      <c r="AM19" s="210"/>
-      <c r="AN19" s="210"/>
-      <c r="AP19" s="19" t="s">
+      <c r="AL19" s="19" t="s">
         <v>19</v>
       </c>
       <c r="AT19" s="199"/>
@@ -3747,10 +3712,7 @@
       <c r="AI20" s="155"/>
       <c r="AJ20" s="208"/>
       <c r="AK20" s="208"/>
-      <c r="AL20" s="208"/>
-      <c r="AM20" s="208"/>
-      <c r="AN20" s="208"/>
-      <c r="AP20" s="19" t="s">
+      <c r="AL20" s="19" t="s">
         <v>19</v>
       </c>
       <c r="AT20" s="199"/>
@@ -3794,10 +3756,7 @@
       <c r="AI21" s="155"/>
       <c r="AJ21" s="221"/>
       <c r="AK21" s="221"/>
-      <c r="AL21" s="221"/>
-      <c r="AM21" s="221"/>
-      <c r="AN21" s="221"/>
-      <c r="AP21" s="19" t="s">
+      <c r="AL21" s="19" t="s">
         <v>19</v>
       </c>
       <c r="AT21" s="199"/>
@@ -3841,10 +3800,7 @@
       <c r="AI22" s="155"/>
       <c r="AJ22" s="217"/>
       <c r="AK22" s="217"/>
-      <c r="AL22" s="217"/>
-      <c r="AM22" s="217"/>
-      <c r="AN22" s="155"/>
-      <c r="AP22" s="19" t="s">
+      <c r="AL22" s="19" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3944,54 +3900,44 @@
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AE4:AJ4 AS4 C5:X6 Z5:AE6 AE5:AK6 AS5:AS6">
-    <cfRule type="expression" dxfId="0" priority="120" operator="" text="">
-      <formula>BG$7=TODAY()</formula>
+  <conditionalFormatting sqref="AF4:AJ4 AS4 C5:X6 Z5:AE6 AE5:AK6 AS5:AS6">
+    <cfRule type="expression" dxfId="0" priority="123" operator="" text="">
+      <formula>EO$7=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT4:AT5">
-    <cfRule type="expression" dxfId="0" priority="103" operator="" text="">
+    <cfRule type="expression" dxfId="0" priority="106" operator="" text="">
       <formula>AT$7=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5:AE6">
-    <cfRule type="expression" dxfId="0" priority="86" operator="" text="">
+    <cfRule type="expression" dxfId="0" priority="89" operator="" text="">
       <formula>Y$7=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5:AK6">
-    <cfRule type="expression" dxfId="0" priority="48" operator="" text="">
+    <cfRule type="expression" dxfId="0" priority="51" operator="" text="">
       <formula>AG$7=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5:AK6">
-    <cfRule type="expression" dxfId="0" priority="49" operator="" text="">
+    <cfRule type="expression" dxfId="0" priority="52" operator="" text="">
       <formula>AF$7=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM5:AN6">
-    <cfRule type="expression" dxfId="0" priority="21" operator="" text="">
-      <formula>AM$7=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL5:AN6">
-    <cfRule type="expression" dxfId="0" priority="22" operator="" text="">
+  <conditionalFormatting sqref="AL4">
+    <cfRule type="expression" dxfId="0" priority="1" operator="" text="">
       <formula>AL$7=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP4">
-    <cfRule type="expression" dxfId="0" priority="1" operator="" text="">
-      <formula>AP$7=TODAY()</formula>
+  <conditionalFormatting sqref="AL5:AL6">
+    <cfRule type="expression" dxfId="0" priority="2" operator="" text="">
+      <formula>AL$7=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP5:AP6">
-    <cfRule type="expression" dxfId="0" priority="2" operator="" text="">
-      <formula>AP$7=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP5:AP6">
+  <conditionalFormatting sqref="AL5:AL6">
     <cfRule type="expression" dxfId="0" priority="3" operator="" text="">
-      <formula>AP$7=TODAY()</formula>
+      <formula>AL$7=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
